--- a/seguimiento/ProduccionDigital/SegDigital_CS_09_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_09_01_CO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Documents\Aula Planeta Colombia\Repositorios\CienciasSociales\seguimiento\ProduccionDigital\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glorita\Documents\GitHub\CienciasSociales\seguimiento\ProduccionDigital\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21721" windowHeight="9718"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -716,22 +716,23 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G27" sqref="G27"/>
+      <selection pane="topRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="48.53125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.46484375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
     <col min="5" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="9" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.796875" style="1"/>
+    <col min="8" max="8" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.100000000000001" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
@@ -739,7 +740,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="21.15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -782,7 +783,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="15.85" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
@@ -800,14 +801,16 @@
       <c r="G4" s="15">
         <v>42090.75277777778</v>
       </c>
-      <c r="H4" s="13"/>
+      <c r="H4" s="13">
+        <v>42091.416666666664</v>
+      </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="17"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -823,14 +826,16 @@
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
-      <c r="H5" s="13"/>
+      <c r="H5" s="13">
+        <v>42091.416666666664</v>
+      </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="17"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
@@ -846,14 +851,16 @@
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="13"/>
+      <c r="H6" s="13">
+        <v>42091.416666666664</v>
+      </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="17"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -869,14 +876,16 @@
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="13"/>
+      <c r="H7" s="13">
+        <v>42091.416666666664</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="17"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -892,14 +901,16 @@
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="13"/>
+      <c r="H8" s="13">
+        <v>42091.416666666664</v>
+      </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="9"/>
       <c r="L8" s="17"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
@@ -915,14 +926,16 @@
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="13">
+        <v>42091.416666666664</v>
+      </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="17"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
@@ -938,14 +951,16 @@
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="13"/>
+      <c r="H10" s="13">
+        <v>42091.416666666664</v>
+      </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="17"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
@@ -961,14 +976,16 @@
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="13">
+        <v>42091.416666666664</v>
+      </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="17"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
@@ -984,14 +1001,16 @@
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="13"/>
+      <c r="H12" s="13">
+        <v>42091.416666666664</v>
+      </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="17"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
@@ -1007,14 +1026,16 @@
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="13"/>
+      <c r="H13" s="13">
+        <v>42091.416666666664</v>
+      </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="17"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
@@ -1030,14 +1051,16 @@
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
-      <c r="H14" s="13"/>
+      <c r="H14" s="13">
+        <v>42091.416666666664</v>
+      </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="17"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>12</v>
       </c>
@@ -1053,14 +1076,16 @@
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
-      <c r="H15" s="13"/>
+      <c r="H15" s="13">
+        <v>42091.416666666664</v>
+      </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="17"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>13</v>
       </c>
@@ -1076,14 +1101,16 @@
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="13"/>
+      <c r="H16" s="13">
+        <v>42091.416666666664</v>
+      </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="17"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
@@ -1099,14 +1126,16 @@
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="13"/>
+      <c r="H17" s="13">
+        <v>42091.416666666664</v>
+      </c>
       <c r="I17" s="14"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="17"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
@@ -1122,14 +1151,16 @@
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
-      <c r="H18" s="13"/>
+      <c r="H18" s="13">
+        <v>42091.416666666664</v>
+      </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="17"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>16</v>
       </c>
@@ -1145,14 +1176,16 @@
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="13"/>
+      <c r="H19" s="13">
+        <v>42091.416666666664</v>
+      </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="17"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>17</v>
       </c>
@@ -1168,14 +1201,16 @@
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="13"/>
+      <c r="H20" s="13">
+        <v>42091.416666666664</v>
+      </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="17"/>
       <c r="M20" s="15"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>18</v>
       </c>
@@ -1191,14 +1226,16 @@
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
-      <c r="H21" s="13"/>
+      <c r="H21" s="13">
+        <v>42091.416666666664</v>
+      </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="17"/>
       <c r="M21" s="15"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
@@ -1214,14 +1251,16 @@
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
-      <c r="H22" s="13"/>
+      <c r="H22" s="13">
+        <v>42091.416666666664</v>
+      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="17"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>20</v>
       </c>
@@ -1237,14 +1276,16 @@
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
-      <c r="H23" s="13"/>
+      <c r="H23" s="13">
+        <v>42091.416666666664</v>
+      </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="17"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>21</v>
       </c>
@@ -1260,14 +1301,16 @@
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="13"/>
+      <c r="H24" s="13">
+        <v>42091.416666666664</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="17"/>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>22</v>
       </c>
@@ -1283,14 +1326,16 @@
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
-      <c r="H25" s="13"/>
+      <c r="H25" s="13">
+        <v>42091.416666666664</v>
+      </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="17"/>
       <c r="M25" s="15"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>32</v>
       </c>
@@ -1306,7 +1351,9 @@
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
-      <c r="H26" s="13"/>
+      <c r="H26" s="13">
+        <v>42091.416666666664</v>
+      </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>

--- a/seguimiento/ProduccionDigital/SegDigital_CS_09_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_09_01_CO.xlsx
@@ -716,7 +716,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H26" sqref="H26"/>
+      <selection pane="topRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,8 +726,7 @@
     <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
     <col min="5" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="10.85546875" style="1"/>
   </cols>
@@ -829,7 +828,9 @@
       <c r="H5" s="13">
         <v>42091.416666666664</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="14">
+        <v>42100.493750000001</v>
+      </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="17"/>
@@ -854,7 +855,9 @@
       <c r="H6" s="13">
         <v>42091.416666666664</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="14">
+        <v>42100.493750000001</v>
+      </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="17"/>
@@ -879,7 +882,9 @@
       <c r="H7" s="13">
         <v>42091.416666666664</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="14">
+        <v>42100.493750000001</v>
+      </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="17"/>
@@ -904,7 +909,9 @@
       <c r="H8" s="13">
         <v>42091.416666666664</v>
       </c>
-      <c r="I8" s="14"/>
+      <c r="I8" s="14">
+        <v>42100.493750000001</v>
+      </c>
       <c r="J8" s="14"/>
       <c r="K8" s="9"/>
       <c r="L8" s="17"/>
@@ -929,7 +936,9 @@
       <c r="H9" s="13">
         <v>42091.416666666664</v>
       </c>
-      <c r="I9" s="9"/>
+      <c r="I9" s="14">
+        <v>42100.493750000001</v>
+      </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="17"/>
@@ -954,7 +963,9 @@
       <c r="H10" s="13">
         <v>42091.416666666664</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="14">
+        <v>42100.493750000001</v>
+      </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="17"/>
@@ -979,7 +990,9 @@
       <c r="H11" s="13">
         <v>42091.416666666664</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="14">
+        <v>42100.493750000001</v>
+      </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="17"/>
@@ -1004,7 +1017,9 @@
       <c r="H12" s="13">
         <v>42091.416666666664</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="14">
+        <v>42100.493750000001</v>
+      </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="17"/>
@@ -1029,7 +1044,9 @@
       <c r="H13" s="13">
         <v>42091.416666666664</v>
       </c>
-      <c r="I13" s="9"/>
+      <c r="I13" s="14">
+        <v>42100.493750000001</v>
+      </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="17"/>
@@ -1054,7 +1071,9 @@
       <c r="H14" s="13">
         <v>42091.416666666664</v>
       </c>
-      <c r="I14" s="9"/>
+      <c r="I14" s="14">
+        <v>42100.493750000001</v>
+      </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="17"/>
@@ -1079,7 +1098,9 @@
       <c r="H15" s="13">
         <v>42091.416666666664</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="I15" s="14">
+        <v>42100.493750000001</v>
+      </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="17"/>
@@ -1104,7 +1125,9 @@
       <c r="H16" s="13">
         <v>42091.416666666664</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="I16" s="14">
+        <v>42100.493750000001</v>
+      </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="17"/>
@@ -1129,7 +1152,9 @@
       <c r="H17" s="13">
         <v>42091.416666666664</v>
       </c>
-      <c r="I17" s="14"/>
+      <c r="I17" s="14">
+        <v>42100.493750000001</v>
+      </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="17"/>
@@ -1154,7 +1179,9 @@
       <c r="H18" s="13">
         <v>42091.416666666664</v>
       </c>
-      <c r="I18" s="9"/>
+      <c r="I18" s="14">
+        <v>42100.493750000001</v>
+      </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="17"/>
@@ -1179,7 +1206,9 @@
       <c r="H19" s="13">
         <v>42091.416666666664</v>
       </c>
-      <c r="I19" s="9"/>
+      <c r="I19" s="14">
+        <v>42100.493750000001</v>
+      </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="17"/>
@@ -1204,7 +1233,9 @@
       <c r="H20" s="13">
         <v>42091.416666666664</v>
       </c>
-      <c r="I20" s="9"/>
+      <c r="I20" s="14">
+        <v>42100.493750000001</v>
+      </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="17"/>
@@ -1229,7 +1260,9 @@
       <c r="H21" s="13">
         <v>42091.416666666664</v>
       </c>
-      <c r="I21" s="9"/>
+      <c r="I21" s="14">
+        <v>42100.493750000001</v>
+      </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="17"/>
@@ -1254,7 +1287,9 @@
       <c r="H22" s="13">
         <v>42091.416666666664</v>
       </c>
-      <c r="I22" s="9"/>
+      <c r="I22" s="14">
+        <v>42100.493750000001</v>
+      </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="17"/>
@@ -1279,7 +1314,9 @@
       <c r="H23" s="13">
         <v>42091.416666666664</v>
       </c>
-      <c r="I23" s="9"/>
+      <c r="I23" s="14">
+        <v>42100.493750000001</v>
+      </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="17"/>
@@ -1304,7 +1341,9 @@
       <c r="H24" s="13">
         <v>42091.416666666664</v>
       </c>
-      <c r="I24" s="9"/>
+      <c r="I24" s="14">
+        <v>42100.493750000001</v>
+      </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="17"/>
@@ -1329,7 +1368,9 @@
       <c r="H25" s="13">
         <v>42091.416666666664</v>
       </c>
-      <c r="I25" s="9"/>
+      <c r="I25" s="14">
+        <v>42100.493750000001</v>
+      </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="17"/>
@@ -1354,7 +1395,9 @@
       <c r="H26" s="13">
         <v>42091.416666666664</v>
       </c>
-      <c r="I26" s="9"/>
+      <c r="I26" s="14">
+        <v>42100.493750000001</v>
+      </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="17"/>

--- a/seguimiento/ProduccionDigital/SegDigital_CS_09_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_09_01_CO.xlsx
@@ -716,7 +716,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J4" sqref="J4"/>
+      <selection pane="topRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,8 +726,7 @@
     <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
     <col min="5" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="9" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
@@ -1074,7 +1073,9 @@
       <c r="I14" s="14">
         <v>42100.493750000001</v>
       </c>
-      <c r="J14" s="9"/>
+      <c r="J14" s="14">
+        <v>42115.791666666664</v>
+      </c>
       <c r="K14" s="9"/>
       <c r="L14" s="17"/>
       <c r="M14" s="15"/>
@@ -1398,7 +1399,9 @@
       <c r="I26" s="14">
         <v>42100.493750000001</v>
       </c>
-      <c r="J26" s="9"/>
+      <c r="J26" s="14">
+        <v>42115.8125</v>
+      </c>
       <c r="K26" s="9"/>
       <c r="L26" s="17"/>
       <c r="M26" s="15"/>

--- a/seguimiento/ProduccionDigital/SegDigital_CS_09_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_09_01_CO.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glorita\Documents\GitHub\CienciasSociales\seguimiento\ProduccionDigital\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="9720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35300" windowHeight="18080"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="76">
   <si>
     <t>Cuaderno de estudio</t>
   </si>
@@ -222,6 +217,39 @@
   </si>
   <si>
     <t>si</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Cambio video audio latino</t>
+  </si>
+  <si>
+    <t>Video no carga / Bloqleo Oliver</t>
+  </si>
+  <si>
+    <t>Pendiente por video</t>
+  </si>
+  <si>
+    <t>Recurso no pertenece / preguntar a Editor</t>
+  </si>
+  <si>
+    <t>"Entregar a mano" por "Entregar por escrito"</t>
+  </si>
+  <si>
+    <t>Pendiente cambio PDF</t>
+  </si>
+  <si>
+    <t>"Entragar a mano" por "Entregar por escrito" / Imagen con marca de agua</t>
+  </si>
+  <si>
+    <t>"Entregar a mano" por "Entregar por escrito" / No actualiza Preview</t>
+  </si>
+  <si>
+    <t>Cambio video audio latino / cambio PDF</t>
   </si>
 </sst>
 </file>
@@ -231,7 +259,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +335,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -340,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -363,8 +397,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -372,8 +432,46 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -399,9 +497,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -423,17 +518,61 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="45">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -704,7 +843,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -712,33 +851,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J26" sqref="J26"/>
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="1" customWidth="1"/>
     <col min="5" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="10" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.85546875" style="1"/>
+    <col min="8" max="10" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="56.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:16" ht="18">
+      <c r="A1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="22">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -773,46 +914,58 @@
         <v>37</v>
       </c>
       <c r="L3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" ht="15">
+      <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>42090.747916666667</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>42090.750694444447</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>42090.75277777778</v>
       </c>
-      <c r="H4" s="13">
-        <v>42091.416666666664</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="15"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="H4" s="12">
+        <v>42091.416666666664</v>
+      </c>
+      <c r="I4" s="13">
+        <v>42143.676388888889</v>
+      </c>
+      <c r="J4" s="13">
+        <v>42151.432638888888</v>
+      </c>
+      <c r="K4" s="13">
+        <v>42151.432638888888</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="18"/>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -821,25 +974,32 @@
       <c r="D5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="13">
-        <v>42091.416666666664</v>
-      </c>
-      <c r="I5" s="14">
-        <v>42100.493750000001</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="15"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="12">
+        <v>42091.416666666664</v>
+      </c>
+      <c r="I5" s="13">
+        <v>42100.493750000001</v>
+      </c>
+      <c r="J5" s="13">
+        <v>42165.306944444441</v>
+      </c>
+      <c r="K5" s="16">
+        <v>42165.555555555555</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="18"/>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -848,25 +1008,32 @@
       <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="13">
-        <v>42091.416666666664</v>
-      </c>
-      <c r="I6" s="14">
-        <v>42100.493750000001</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="15"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="12">
+        <v>42091.416666666664</v>
+      </c>
+      <c r="I6" s="13">
+        <v>42100.493750000001</v>
+      </c>
+      <c r="J6" s="13">
+        <v>42165.306944444441</v>
+      </c>
+      <c r="K6" s="16">
+        <v>42165.555555555555</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="18"/>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -875,25 +1042,32 @@
       <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="13">
-        <v>42091.416666666664</v>
-      </c>
-      <c r="I7" s="14">
-        <v>42100.493750000001</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="15"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="12">
+        <v>42091.416666666664</v>
+      </c>
+      <c r="I7" s="13">
+        <v>42100.493750000001</v>
+      </c>
+      <c r="J7" s="13">
+        <v>42165.306944444441</v>
+      </c>
+      <c r="K7" s="16">
+        <v>42165.555555555555</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="18"/>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -902,25 +1076,28 @@
       <c r="D8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="13">
-        <v>42091.416666666664</v>
-      </c>
-      <c r="I8" s="14">
-        <v>42100.493750000001</v>
-      </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="15"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="12">
+        <v>42091.416666666664</v>
+      </c>
+      <c r="I8" s="13">
+        <v>42100.493750000001</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="18"/>
+      <c r="N8" s="14"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -929,25 +1106,32 @@
       <c r="D9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="13">
-        <v>42091.416666666664</v>
-      </c>
-      <c r="I9" s="14">
-        <v>42100.493750000001</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="15"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="12">
+        <v>42091.416666666664</v>
+      </c>
+      <c r="I9" s="13">
+        <v>42100.493750000001</v>
+      </c>
+      <c r="J9" s="13">
+        <v>42165.306944444441</v>
+      </c>
+      <c r="K9" s="16">
+        <v>42165.555555555555</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="18"/>
+      <c r="N9" s="14"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -956,25 +1140,32 @@
       <c r="D10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="13">
-        <v>42091.416666666664</v>
-      </c>
-      <c r="I10" s="14">
-        <v>42100.493750000001</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="15"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="12">
+        <v>42091.416666666664</v>
+      </c>
+      <c r="I10" s="13">
+        <v>42100.493750000001</v>
+      </c>
+      <c r="J10" s="13">
+        <v>42165.306944444441</v>
+      </c>
+      <c r="K10" s="16">
+        <v>42165.555555555555</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" s="18"/>
+      <c r="N10" s="14"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -983,25 +1174,28 @@
       <c r="D11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="13">
-        <v>42091.416666666664</v>
-      </c>
-      <c r="I11" s="14">
-        <v>42100.493750000001</v>
-      </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="15"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="12">
+        <v>42091.416666666664</v>
+      </c>
+      <c r="I11" s="13">
+        <v>42100.493750000001</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="18"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -1010,25 +1204,32 @@
       <c r="D12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="13">
-        <v>42091.416666666664</v>
-      </c>
-      <c r="I12" s="14">
-        <v>42100.493750000001</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="15"/>
-    </row>
-    <row r="13" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="12">
+        <v>42091.416666666664</v>
+      </c>
+      <c r="I12" s="13">
+        <v>42100.493750000001</v>
+      </c>
+      <c r="J12" s="13">
+        <v>42165.306944444441</v>
+      </c>
+      <c r="K12" s="16">
+        <v>42165.555555555555</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="18"/>
+      <c r="N12" s="14"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -1037,25 +1238,32 @@
       <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="13">
-        <v>42091.416666666664</v>
-      </c>
-      <c r="I13" s="14">
-        <v>42100.493750000001</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="15"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="12">
+        <v>42091.416666666664</v>
+      </c>
+      <c r="I13" s="13">
+        <v>42100.493750000001</v>
+      </c>
+      <c r="J13" s="13">
+        <v>42165.306944444441</v>
+      </c>
+      <c r="K13" s="16">
+        <v>42165.555555555555</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" s="18"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -1064,27 +1272,32 @@
       <c r="D14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="13">
-        <v>42091.416666666664</v>
-      </c>
-      <c r="I14" s="14">
-        <v>42100.493750000001</v>
-      </c>
-      <c r="J14" s="14">
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="12">
+        <v>42091.416666666664</v>
+      </c>
+      <c r="I14" s="13">
+        <v>42100.493750000001</v>
+      </c>
+      <c r="J14" s="13">
         <v>42115.791666666664</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="15"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="K14" s="16">
+        <v>42115.854166666664</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14" s="18"/>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -1093,25 +1306,32 @@
       <c r="D15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="13">
-        <v>42091.416666666664</v>
-      </c>
-      <c r="I15" s="14">
-        <v>42100.493750000001</v>
-      </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="15"/>
-    </row>
-    <row r="16" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="12">
+        <v>42091.416666666664</v>
+      </c>
+      <c r="I15" s="13">
+        <v>42100.493750000001</v>
+      </c>
+      <c r="J15" s="12">
+        <v>42165.306944444441</v>
+      </c>
+      <c r="K15" s="16">
+        <v>42165.555555555555</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="18"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -1120,25 +1340,32 @@
       <c r="D16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="13">
-        <v>42091.416666666664</v>
-      </c>
-      <c r="I16" s="14">
-        <v>42100.493750000001</v>
-      </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="15"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="12">
+        <v>42091.416666666664</v>
+      </c>
+      <c r="I16" s="13">
+        <v>42100.493750000001</v>
+      </c>
+      <c r="J16" s="12">
+        <v>42165.306944444441</v>
+      </c>
+      <c r="K16" s="16">
+        <v>42165.555555555555</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="M16" s="18"/>
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -1147,25 +1374,32 @@
       <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="13">
-        <v>42091.416666666664</v>
-      </c>
-      <c r="I17" s="14">
-        <v>42100.493750000001</v>
-      </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="15"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="12">
+        <v>42091.416666666664</v>
+      </c>
+      <c r="I17" s="13">
+        <v>42100.493750000001</v>
+      </c>
+      <c r="J17" s="12">
+        <v>42165.306944444441</v>
+      </c>
+      <c r="K17" s="16">
+        <v>42165.555555555555</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" s="18"/>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -1174,25 +1408,32 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="13">
-        <v>42091.416666666664</v>
-      </c>
-      <c r="I18" s="14">
-        <v>42100.493750000001</v>
-      </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="15"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="12">
+        <v>42091.416666666664</v>
+      </c>
+      <c r="I18" s="13">
+        <v>42100.493750000001</v>
+      </c>
+      <c r="J18" s="12">
+        <v>42165.306944444441</v>
+      </c>
+      <c r="K18" s="16">
+        <v>42165.555555555555</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="18"/>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -1201,25 +1442,32 @@
       <c r="D19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="13">
-        <v>42091.416666666664</v>
-      </c>
-      <c r="I19" s="14">
-        <v>42100.493750000001</v>
-      </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="15"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="12">
+        <v>42091.416666666664</v>
+      </c>
+      <c r="I19" s="13">
+        <v>42100.493750000001</v>
+      </c>
+      <c r="J19" s="12">
+        <v>42165.306944444441</v>
+      </c>
+      <c r="K19" s="16">
+        <v>42165.555555555555</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="M19" s="18"/>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -1228,25 +1476,32 @@
       <c r="D20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="13">
-        <v>42091.416666666664</v>
-      </c>
-      <c r="I20" s="14">
-        <v>42100.493750000001</v>
-      </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="15"/>
-    </row>
-    <row r="21" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="12">
+        <v>42091.416666666664</v>
+      </c>
+      <c r="I20" s="13">
+        <v>42100.493750000001</v>
+      </c>
+      <c r="J20" s="12">
+        <v>42165.306944444441</v>
+      </c>
+      <c r="K20" s="16">
+        <v>42165.555555555555</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="M20" s="18"/>
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -1255,25 +1510,28 @@
       <c r="D21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="13">
-        <v>42091.416666666664</v>
-      </c>
-      <c r="I21" s="14">
-        <v>42100.493750000001</v>
-      </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="15"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="12">
+        <v>42091.416666666664</v>
+      </c>
+      <c r="I21" s="13">
+        <v>42100.493750000001</v>
+      </c>
+      <c r="J21" s="12"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="M21" s="18"/>
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -1282,25 +1540,32 @@
       <c r="D22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="13">
-        <v>42091.416666666664</v>
-      </c>
-      <c r="I22" s="14">
-        <v>42100.493750000001</v>
-      </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="15"/>
-    </row>
-    <row r="23" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="12">
+        <v>42091.416666666664</v>
+      </c>
+      <c r="I22" s="13">
+        <v>42100.493750000001</v>
+      </c>
+      <c r="J22" s="12">
+        <v>42165.306944444441</v>
+      </c>
+      <c r="K22" s="16">
+        <v>42165.555555555555</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="M22" s="18"/>
+      <c r="N22" s="14"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -1309,25 +1574,32 @@
       <c r="D23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="13">
-        <v>42091.416666666664</v>
-      </c>
-      <c r="I23" s="14">
-        <v>42100.493750000001</v>
-      </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="15"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="12">
+        <v>42091.416666666664</v>
+      </c>
+      <c r="I23" s="13">
+        <v>42100.493750000001</v>
+      </c>
+      <c r="J23" s="12">
+        <v>42165.306944444441</v>
+      </c>
+      <c r="K23" s="16">
+        <v>42165.555555555555</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="M23" s="18"/>
+      <c r="N23" s="14"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -1336,25 +1608,32 @@
       <c r="D24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="13">
-        <v>42091.416666666664</v>
-      </c>
-      <c r="I24" s="14">
-        <v>42100.493750000001</v>
-      </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="15"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="12">
+        <v>42091.416666666664</v>
+      </c>
+      <c r="I24" s="13">
+        <v>42100.493750000001</v>
+      </c>
+      <c r="J24" s="12">
+        <v>42165.306944444441</v>
+      </c>
+      <c r="K24" s="16">
+        <v>42165.555555555555</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="M24" s="18"/>
+      <c r="N24" s="14"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -1363,25 +1642,32 @@
       <c r="D25" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="13">
-        <v>42091.416666666664</v>
-      </c>
-      <c r="I25" s="14">
-        <v>42100.493750000001</v>
-      </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="15"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="12">
+        <v>42091.416666666664</v>
+      </c>
+      <c r="I25" s="13">
+        <v>42100.493750000001</v>
+      </c>
+      <c r="J25" s="12">
+        <v>42165.306944444441</v>
+      </c>
+      <c r="K25" s="16">
+        <v>42165.555555555555</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="M25" s="18"/>
+      <c r="N25" s="14"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -1390,31 +1676,37 @@
       <c r="D26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="13">
-        <v>42091.416666666664</v>
-      </c>
-      <c r="I26" s="14">
-        <v>42100.493750000001</v>
-      </c>
-      <c r="J26" s="14">
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="12">
+        <v>42091.416666666664</v>
+      </c>
+      <c r="I26" s="13">
+        <v>42100.493750000001</v>
+      </c>
+      <c r="J26" s="13">
         <v>42115.8125</v>
       </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="15"/>
+      <c r="K26" s="16">
+        <v>42115.854166666664</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="M26" s="18"/>
+      <c r="N26" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="M4:M26"/>
+    <mergeCell ref="N4:N26"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="E4:E26"/>
     <mergeCell ref="F4:F26"/>
     <mergeCell ref="G4:G26"/>
-    <mergeCell ref="L4:L26"/>
+    <mergeCell ref="M4:M26"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>

--- a/seguimiento/ProduccionDigital/SegDigital_CS_09_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_09_01_CO.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="70">
   <si>
     <t>Cuaderno de estudio</t>
   </si>
@@ -228,28 +228,10 @@
     <t>Cambio video audio latino</t>
   </si>
   <si>
-    <t>Video no carga / Bloqleo Oliver</t>
-  </si>
-  <si>
-    <t>Pendiente por video</t>
-  </si>
-  <si>
-    <t>Recurso no pertenece / preguntar a Editor</t>
-  </si>
-  <si>
     <t>"Entregar a mano" por "Entregar por escrito"</t>
   </si>
   <si>
-    <t>Pendiente cambio PDF</t>
-  </si>
-  <si>
     <t>"Entragar a mano" por "Entregar por escrito" / Imagen con marca de agua</t>
-  </si>
-  <si>
-    <t>"Entregar a mano" por "Entregar por escrito" / No actualiza Preview</t>
-  </si>
-  <si>
-    <t>Cambio video audio latino / cambio PDF</t>
   </si>
 </sst>
 </file>
@@ -424,7 +406,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -470,8 +452,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -512,23 +504,20 @@
     <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="55">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -551,6 +540,11 @@
     <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -573,6 +567,11 @@
     <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -843,7 +842,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -855,7 +854,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L26" sqref="L26"/>
+      <selection pane="topRight" activeCell="N4" sqref="N4:N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -926,21 +925,21 @@
       <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16" ht="15">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="15">
         <v>42090.747916666667</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="15">
         <v>42090.750694444447</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="15">
         <v>42090.75277777778</v>
       </c>
       <c r="H4" s="12">
@@ -958,8 +957,10 @@
       <c r="L4" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="18"/>
-      <c r="N4" s="14"/>
+      <c r="M4" s="17">
+        <v>42167.708333333336</v>
+      </c>
+      <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="9" t="s">
@@ -974,9 +975,9 @@
       <c r="D5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="12">
         <v>42091.416666666664</v>
       </c>
@@ -986,14 +987,14 @@
       <c r="J5" s="13">
         <v>42165.306944444441</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="14">
         <v>42165.555555555555</v>
       </c>
       <c r="L5" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="14"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="9" t="s">
@@ -1008,9 +1009,9 @@
       <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="12">
         <v>42091.416666666664</v>
       </c>
@@ -1020,14 +1021,14 @@
       <c r="J6" s="13">
         <v>42165.306944444441</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="14">
         <v>42165.555555555555</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="14"/>
+        <v>68</v>
+      </c>
+      <c r="M6" s="17"/>
+      <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="9" t="s">
@@ -1042,9 +1043,9 @@
       <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="12">
         <v>42091.416666666664</v>
       </c>
@@ -1054,14 +1055,14 @@
       <c r="J7" s="13">
         <v>42165.306944444441</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="14">
         <v>42165.555555555555</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="14"/>
+        <v>66</v>
+      </c>
+      <c r="M7" s="17"/>
+      <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="9" t="s">
@@ -1076,22 +1077,26 @@
       <c r="D8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="12">
         <v>42091.416666666664</v>
       </c>
       <c r="I8" s="13">
         <v>42100.493750000001</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="17"/>
+      <c r="J8" s="14">
+        <v>42167.666666666664</v>
+      </c>
+      <c r="K8" s="14">
+        <v>42167.666666666664</v>
+      </c>
       <c r="L8" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="14"/>
+        <v>66</v>
+      </c>
+      <c r="M8" s="17"/>
+      <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="9" t="s">
@@ -1106,9 +1111,9 @@
       <c r="D9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="12">
         <v>42091.416666666664</v>
       </c>
@@ -1118,14 +1123,14 @@
       <c r="J9" s="13">
         <v>42165.306944444441</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="14">
         <v>42165.555555555555</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="14"/>
+        <v>68</v>
+      </c>
+      <c r="M9" s="17"/>
+      <c r="N9" s="15"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="9" t="s">
@@ -1140,9 +1145,9 @@
       <c r="D10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="12">
         <v>42091.416666666664</v>
       </c>
@@ -1152,14 +1157,14 @@
       <c r="J10" s="13">
         <v>42165.306944444441</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="14">
         <v>42165.555555555555</v>
       </c>
       <c r="L10" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="M10" s="18"/>
-      <c r="N10" s="14"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="9" t="s">
@@ -1174,22 +1179,26 @@
       <c r="D11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="12">
         <v>42091.416666666664</v>
       </c>
       <c r="I11" s="13">
         <v>42100.493750000001</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="17"/>
+      <c r="J11" s="14">
+        <v>42167.666666666664</v>
+      </c>
+      <c r="K11" s="14">
+        <v>42167.666666666664</v>
+      </c>
       <c r="L11" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="14"/>
+        <v>66</v>
+      </c>
+      <c r="M11" s="17"/>
+      <c r="N11" s="15"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="9" t="s">
@@ -1204,9 +1213,9 @@
       <c r="D12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="12">
         <v>42091.416666666664</v>
       </c>
@@ -1216,14 +1225,14 @@
       <c r="J12" s="13">
         <v>42165.306944444441</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="14">
         <v>42165.555555555555</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="M12" s="18"/>
-      <c r="N12" s="14"/>
+        <v>66</v>
+      </c>
+      <c r="M12" s="17"/>
+      <c r="N12" s="15"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="9" t="s">
@@ -1238,9 +1247,9 @@
       <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="12">
         <v>42091.416666666664</v>
       </c>
@@ -1250,14 +1259,14 @@
       <c r="J13" s="13">
         <v>42165.306944444441</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="14">
         <v>42165.555555555555</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="M13" s="18"/>
-      <c r="N13" s="14"/>
+        <v>68</v>
+      </c>
+      <c r="M13" s="17"/>
+      <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="9" t="s">
@@ -1272,9 +1281,9 @@
       <c r="D14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="12">
         <v>42091.416666666664</v>
       </c>
@@ -1284,14 +1293,14 @@
       <c r="J14" s="13">
         <v>42115.791666666664</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="14">
         <v>42115.854166666664</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="M14" s="18"/>
-      <c r="N14" s="14"/>
+        <v>69</v>
+      </c>
+      <c r="M14" s="17"/>
+      <c r="N14" s="15"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="9" t="s">
@@ -1306,9 +1315,9 @@
       <c r="D15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="12">
         <v>42091.416666666664</v>
       </c>
@@ -1318,14 +1327,14 @@
       <c r="J15" s="12">
         <v>42165.306944444441</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="14">
         <v>42165.555555555555</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="14"/>
+        <v>67</v>
+      </c>
+      <c r="M15" s="17"/>
+      <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="9" t="s">
@@ -1340,9 +1349,9 @@
       <c r="D16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
       <c r="H16" s="12">
         <v>42091.416666666664</v>
       </c>
@@ -1352,14 +1361,14 @@
       <c r="J16" s="12">
         <v>42165.306944444441</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="14">
         <v>42165.555555555555</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="M16" s="18"/>
-      <c r="N16" s="14"/>
+        <v>68</v>
+      </c>
+      <c r="M16" s="17"/>
+      <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="9" t="s">
@@ -1374,9 +1383,9 @@
       <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
       <c r="H17" s="12">
         <v>42091.416666666664</v>
       </c>
@@ -1386,14 +1395,14 @@
       <c r="J17" s="12">
         <v>42165.306944444441</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="14">
         <v>42165.555555555555</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="M17" s="18"/>
-      <c r="N17" s="14"/>
+        <v>68</v>
+      </c>
+      <c r="M17" s="17"/>
+      <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="9" t="s">
@@ -1408,9 +1417,9 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
       <c r="H18" s="12">
         <v>42091.416666666664</v>
       </c>
@@ -1420,14 +1429,14 @@
       <c r="J18" s="12">
         <v>42165.306944444441</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="14">
         <v>42165.555555555555</v>
       </c>
       <c r="L18" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="14"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="15"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="9" t="s">
@@ -1442,9 +1451,9 @@
       <c r="D19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
       <c r="H19" s="12">
         <v>42091.416666666664</v>
       </c>
@@ -1454,14 +1463,14 @@
       <c r="J19" s="12">
         <v>42165.306944444441</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="14">
         <v>42165.555555555555</v>
       </c>
       <c r="L19" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="M19" s="18"/>
-      <c r="N19" s="14"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="9" t="s">
@@ -1476,9 +1485,9 @@
       <c r="D20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
       <c r="H20" s="12">
         <v>42091.416666666664</v>
       </c>
@@ -1488,14 +1497,14 @@
       <c r="J20" s="12">
         <v>42165.306944444441</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="14">
         <v>42165.555555555555</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="M20" s="18"/>
-      <c r="N20" s="14"/>
+        <v>68</v>
+      </c>
+      <c r="M20" s="17"/>
+      <c r="N20" s="15"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="9" t="s">
@@ -1510,22 +1519,26 @@
       <c r="D21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
       <c r="H21" s="12">
         <v>42091.416666666664</v>
       </c>
       <c r="I21" s="13">
         <v>42100.493750000001</v>
       </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="17"/>
+      <c r="J21" s="14">
+        <v>42167.708333333336</v>
+      </c>
+      <c r="K21" s="14">
+        <v>42167.708333333336</v>
+      </c>
       <c r="L21" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="M21" s="18"/>
-      <c r="N21" s="14"/>
+        <v>66</v>
+      </c>
+      <c r="M21" s="17"/>
+      <c r="N21" s="15"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="9" t="s">
@@ -1540,9 +1553,9 @@
       <c r="D22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
       <c r="H22" s="12">
         <v>42091.416666666664</v>
       </c>
@@ -1552,14 +1565,14 @@
       <c r="J22" s="12">
         <v>42165.306944444441</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="14">
         <v>42165.555555555555</v>
       </c>
       <c r="L22" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="M22" s="18"/>
-      <c r="N22" s="14"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="15"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="9" t="s">
@@ -1574,9 +1587,9 @@
       <c r="D23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
       <c r="H23" s="12">
         <v>42091.416666666664</v>
       </c>
@@ -1586,14 +1599,14 @@
       <c r="J23" s="12">
         <v>42165.306944444441</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23" s="14">
         <v>42165.555555555555</v>
       </c>
       <c r="L23" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="14"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="15"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="9" t="s">
@@ -1608,9 +1621,9 @@
       <c r="D24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
       <c r="H24" s="12">
         <v>42091.416666666664</v>
       </c>
@@ -1620,14 +1633,14 @@
       <c r="J24" s="12">
         <v>42165.306944444441</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K24" s="14">
         <v>42165.555555555555</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="M24" s="18"/>
-      <c r="N24" s="14"/>
+        <v>68</v>
+      </c>
+      <c r="M24" s="17"/>
+      <c r="N24" s="15"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="9" t="s">
@@ -1642,9 +1655,9 @@
       <c r="D25" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
       <c r="H25" s="12">
         <v>42091.416666666664</v>
       </c>
@@ -1654,14 +1667,14 @@
       <c r="J25" s="12">
         <v>42165.306944444441</v>
       </c>
-      <c r="K25" s="16">
+      <c r="K25" s="14">
         <v>42165.555555555555</v>
       </c>
       <c r="L25" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="M25" s="18"/>
-      <c r="N25" s="14"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="9" t="s">
@@ -1676,9 +1689,9 @@
       <c r="D26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
       <c r="H26" s="12">
         <v>42091.416666666664</v>
       </c>
@@ -1688,14 +1701,14 @@
       <c r="J26" s="13">
         <v>42115.8125</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="14">
         <v>42115.854166666664</v>
       </c>
       <c r="L26" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="M26" s="18"/>
-      <c r="N26" s="14"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/seguimiento/ProduccionDigital/SegDigital_CS_09_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_09_01_CO.xlsx
@@ -842,7 +842,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
